--- a/templates/AutomationOrg/RSTK-9517-Work Order complete Flow.xlsx
+++ b/templates/AutomationOrg/RSTK-9517-Work Order complete Flow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65FE980-5BEA-4FFE-9F56-1516A9171271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558F9B3A-F3E1-4FC8-B0DA-40C1426845D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
   <si>
     <t>Site</t>
   </si>
@@ -164,12 +164,6 @@
   </si>
   <si>
     <t>Txn Comment</t>
-  </si>
-  <si>
-    <t>Reverse 3</t>
-  </si>
-  <si>
-    <t>Reverse 2</t>
   </si>
   <si>
     <t>Employee</t>
@@ -605,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -664,26 +658,12 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -719,28 +699,28 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +733,7 @@
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,58 +764,58 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="P1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>73</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -847,10 +827,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8AA5-AAA5-4969-B3C7-F881B91DE17C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,7 +900,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -947,7 +927,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -976,13 +956,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1002,13 +982,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
@@ -1031,20 +1011,22 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3"/>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="b">
+      <c r="I6" t="b">
         <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
       </c>
       <c r="N6" t="s">
         <v>23</v>
@@ -1057,9 +1039,6 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -1067,70 +1046,18 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
-        <v>21</v>
+      <c r="L7">
+        <v>5</v>
       </c>
       <c r="N7" t="s">
         <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1143,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B46C-917D-4769-9EED-CC4369AB85E4}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,7 +1124,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -1215,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
@@ -1241,44 +1168,15 @@
         <v>41</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
         <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1289,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4834583-3C97-4830-AB3E-726B04898CE6}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1322,32 +1220,21 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1357,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64F68B-8B51-425D-AD6F-D9D782FBD866}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1396,54 +1283,38 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9">
         <v>10</v>
       </c>
     </row>
@@ -1472,15 +1343,15 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>

--- a/templates/AutomationOrg/RSTK-9517-Work Order complete Flow.xlsx
+++ b/templates/AutomationOrg/RSTK-9517-Work Order complete Flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558F9B3A-F3E1-4FC8-B0DA-40C1426845D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E71EE9-FFF6-4721-A953-0614A08E608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,7 +830,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,9 +1051,6 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
       <c r="N7" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1070,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
